--- a/data/vintage_data/data_20200812.xlsx
+++ b/data/vintage_data/data_20200812.xlsx
@@ -16028,7 +16028,7 @@
         <v>0.1666814285714287</v>
       </c>
       <c r="D99">
-        <v>34.73174603174603</v>
+        <v>-0.03095238095238095</v>
       </c>
       <c r="E99">
         <v>-1.804178144788143</v>
@@ -16181,6 +16181,9 @@
       </c>
       <c r="C100">
         <v>0.435856043956044</v>
+      </c>
+      <c r="D100">
+        <v>35.61785714285714</v>
       </c>
       <c r="E100">
         <v>-10.63445459035531</v>
@@ -31526,7 +31529,7 @@
         <v>0.1666814285714287</v>
       </c>
       <c r="D99">
-        <v>34.73174603174603</v>
+        <v>-0.03095238095238095</v>
       </c>
       <c r="E99">
         <v>-1.804178144788143</v>
@@ -31679,6 +31682,9 @@
       </c>
       <c r="C100">
         <v>0.435856043956044</v>
+      </c>
+      <c r="D100">
+        <v>35.61785714285714</v>
       </c>
       <c r="E100">
         <v>-10.63445459035531</v>
@@ -47050,7 +47056,7 @@
         <v>0.1666814285714287</v>
       </c>
       <c r="D99">
-        <v>34.73174603174603</v>
+        <v>-0.03095238095238095</v>
       </c>
       <c r="E99">
         <v>-1.804178144788143</v>
@@ -47204,6 +47210,9 @@
       <c r="C100">
         <v>0.435856043956044</v>
       </c>
+      <c r="D100">
+        <v>35.61785714285714</v>
+      </c>
       <c r="E100">
         <v>-10.63445459035531</v>
       </c>
@@ -47346,6 +47355,9 @@
       </c>
       <c r="C101">
         <v>0.1689928544636159</v>
+      </c>
+      <c r="D101">
+        <v>68.60833333333333</v>
       </c>
       <c r="F101">
         <v>-0.02029089535733848</v>
@@ -62595,7 +62607,7 @@
         <v>0.1666814285714287</v>
       </c>
       <c r="D99">
-        <v>34.73174603174603</v>
+        <v>-0.03095238095238095</v>
       </c>
       <c r="E99">
         <v>-1.804178144788143</v>
@@ -62749,6 +62761,9 @@
       <c r="C100">
         <v>0.435856043956044</v>
       </c>
+      <c r="D100">
+        <v>35.61785714285714</v>
+      </c>
       <c r="E100">
         <v>-10.63445459035531</v>
       </c>
@@ -62891,6 +62906,9 @@
       </c>
       <c r="C101">
         <v>0.1689928544636159</v>
+      </c>
+      <c r="D101">
+        <v>68.60833333333333</v>
       </c>
       <c r="F101">
         <v>-0.02029089535733848</v>
